--- a/PC Invest.xlsx
+++ b/PC Invest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab5fdb3a456cdeb0/Documentos/Santander Cursos/Git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab5fdb3a456cdeb0/Documentos/Santander Cursos/Git/pcmarques_Invest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{546C6AF8-287B-4990-8AC7-EE582359AA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{546C6AF8-287B-4990-8AC7-EE582359AA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F09F5759-BFF8-4B40-BBD0-BBA43ACF8733}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="0" xr2:uid="{B6302A8B-7AB4-4DE6-81E3-259D98E4DD5E}"/>
   </bookViews>
@@ -160,7 +160,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -739,35 +739,14 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,69 +759,24 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,28 +787,21 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
@@ -887,11 +814,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,32 +825,101 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -986,6 +977,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C9CF-4006-9C85-6B74BB504AD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1001,6 +997,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C9CF-4006-9C85-6B74BB504AD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1016,6 +1017,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C9CF-4006-9C85-6B74BB504AD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1031,6 +1037,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C9CF-4006-9C85-6B74BB504AD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1201,6 +1212,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-C9CF-4006-9C85-6B74BB504AD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1216,6 +1232,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-C9CF-4006-9C85-6B74BB504AD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1231,6 +1252,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-C9CF-4006-9C85-6B74BB504AD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1246,6 +1272,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-C9CF-4006-9C85-6B74BB504AD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1261,6 +1292,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-C9CF-4006-9C85-6B74BB504AD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1276,6 +1312,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-C9CF-4006-9C85-6B74BB504AD8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1467,7 +1508,16 @@
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:softEdge rad="0"/>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT prst="convex"/>
+    </a:sp3d>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -2104,13 +2154,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>883227</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>31173</xdr:rowOff>
+      <xdr:rowOff>130569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>710045</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>107373</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>16269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2136,6 +2186,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2457,509 +2511,426 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F0D725-C5CF-4A70-9F83-03DD12E73E26}">
   <dimension ref="A8:H73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:D42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" style="46" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="46" hidden="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" customFormat="1" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="17" t="s">
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46"/>
-      <c r="B10" s="19" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+    </row>
+    <row r="10" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="15">
+      <c r="C10" s="46"/>
+      <c r="D10" s="8">
         <v>2000</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-    </row>
-    <row r="11" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
-      <c r="B11" s="21" t="s">
+    </row>
+    <row r="11" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="16">
+      <c r="C11" s="48"/>
+      <c r="D11" s="9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="23" t="s">
+    </row>
+    <row r="12" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="33">
+      <c r="C12" s="50"/>
+      <c r="D12" s="11">
         <f>D10*30%</f>
         <v>600</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
-      <c r="B15" s="25" t="s">
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="14">
+      <c r="C15" s="60"/>
+      <c r="D15" s="7">
         <v>200</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="46"/>
-      <c r="B16" s="27" t="s">
+    </row>
+    <row r="16" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="12">
+      <c r="C16" s="62"/>
+      <c r="D16" s="5">
         <v>10</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46"/>
-      <c r="B17" s="27" t="s">
+    </row>
+    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="13">
+      <c r="C17" s="62"/>
+      <c r="D17" s="6">
         <v>1.0789999999999999E-2</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46"/>
-      <c r="B18" s="29" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="10">
+      <c r="C18" s="64"/>
+      <c r="D18" s="3">
         <f>FV(D17,D16*12,D15*-1)</f>
         <v>48656.842506034438</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="46"/>
-      <c r="B19" s="31" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="11">
+      <c r="C19" s="66"/>
+      <c r="D19" s="4">
         <f>D18*D11</f>
         <v>291.94105503620665</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="46" t="s">
+      <c r="C20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+    </row>
+    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23">
         <v>2</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="37">
         <f>FV($D$17,$A22*12,$D$15*-1)</f>
         <v>5445.5254595290435</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="38">
         <f>C22*$D$11</f>
         <v>32.673152757174265</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+    </row>
+    <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23">
         <v>5</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="40">
         <f>FV($D$17,$A23*12,$D$15*-1)</f>
         <v>16755.382799697527</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="41">
         <f>C23*$D$11</f>
         <v>100.53229679818516</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+    </row>
+    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23">
         <v>10</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="40">
         <f>FV($D$17,$A24*12,$D$15*-1)</f>
         <v>48656.842506034438</v>
       </c>
-      <c r="D24" s="69">
+      <c r="D24" s="41">
         <f>C24*$D$11</f>
         <v>291.94105503620665</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="25" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="47">
+    </row>
+    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23">
         <v>20</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="40">
         <f>FV($D$17,$A25*12,$D$15*-1)</f>
         <v>225039.68001941612</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="41">
         <f>C25*$D$11</f>
         <v>1350.2380801164968</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="47">
+    </row>
+    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23">
         <v>30</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="43">
         <f>FV($D$17,$A26*12,$D$15*-1)</f>
         <v>864433.93100094295</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="44">
         <f>C26*$D$11</f>
         <v>5186.6035860056581</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-    </row>
-    <row r="27" spans="1:8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-    </row>
-    <row r="28" spans="1:8" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="48"/>
-      <c r="E29" s="46" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="34" t="s">
+    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-    </row>
-    <row r="31" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="37" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="16">
         <f>Aporte</f>
         <v>200</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-    </row>
-    <row r="33" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="40" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-    </row>
-    <row r="34" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="41" t="s">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="20">
         <f>VLOOKUP($C$30&amp;"-"&amp;$B34,Planilha2!$A:$D,4,0)</f>
         <v>0.5</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="21">
         <f>C34*$C$31</f>
         <v>100</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-    </row>
-    <row r="35" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="41" t="s">
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="20">
         <f>VLOOKUP($C$30&amp;"-"&amp;$B35,Planilha2!$A:$D,4,0)</f>
         <v>0.1</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="21">
         <f t="shared" ref="D35:D39" si="0">C35*$C$31</f>
         <v>20</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="41" t="s">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="20">
         <f>VLOOKUP($C$30&amp;"-"&amp;$B36,Planilha2!$A:$D,4,0)</f>
         <v>0.05</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-    </row>
-    <row r="37" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="41" t="s">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="20">
         <f>VLOOKUP($C$30&amp;"-"&amp;$B37,Planilha2!$A:$D,4,0)</f>
         <v>0.05</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="41" t="s">
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="20">
         <f>VLOOKUP($C$30&amp;"-"&amp;$B38,Planilha2!$A:$D,4,0)</f>
         <v>0.2</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="41" t="s">
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="20">
         <f>VLOOKUP($C$30&amp;"-"&amp;$B39,Planilha2!$A:$D,4,0)</f>
         <v>0.1</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="45" t="s">
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="44">
+      <c r="C40" s="57"/>
+      <c r="D40" s="22">
         <f>SUM(D34:D39)</f>
         <v>200</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
     </row>
     <row r="42" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-    </row>
-    <row r="49" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+    </row>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B40:C40"/>
@@ -2969,12 +2940,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30" xr:uid="{4C449131-F025-4955-BF34-A9D09E41B92A}">
@@ -2999,23 +2970,23 @@
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3027,10 +2998,10 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="20">
         <v>0.3</v>
       </c>
       <c r="H3" t="s">
@@ -3045,16 +3016,16 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="20">
         <v>0.5</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3066,10 +3037,10 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="20">
         <v>0.1</v>
       </c>
     </row>
@@ -3081,10 +3052,10 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="20">
         <v>0.1</v>
       </c>
     </row>
@@ -3096,205 +3067,205 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="str">
+      <c r="A8" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="str">
+      <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-PAPEL</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="32">
         <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="str">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-TIJOLO</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="32">
         <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="str">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HIBRIDO</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="32">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="str">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="32">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="str">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-DESENVOLVIMENTO</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="32">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="str">
+      <c r="A14" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIAS</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="33">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="str">
+      <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-PAPEL</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="32">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="str">
+      <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-TIJOLO</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="32">
         <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="str">
+      <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HIBRIDO</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="32">
         <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="str">
+      <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="32">
         <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="str">
+      <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-DESENVOLVIMENTO</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="32">
         <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="str">
+      <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HOTELARIAS</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="32">
         <v>0.1</v>
       </c>
     </row>
